--- a/Economics/EAOC.xlsx
+++ b/Economics/EAOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauib\ChemE485\Wi2020_CHEME485_FinalProject\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5168C256-CE7A-4FD7-A759-0B7A7EE61EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A3BC3-499E-4C60-939C-0D2624A15D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6BDBB31-F5B6-4AAD-96E7-62C4FCED1806}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>EAOC</t>
-  </si>
-  <si>
     <t>E-701</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
     <t>C-701</t>
   </si>
   <si>
-    <t>Yearly Operating Costs</t>
-  </si>
-  <si>
-    <t>Grassroots Cost</t>
-  </si>
-  <si>
     <t>After-tax internal hurdle rate</t>
   </si>
   <si>
@@ -105,6 +96,18 @@
   </si>
   <si>
     <t>From Itemized Utilities Sheet, assuming no additional maitinence costs</t>
+  </si>
+  <si>
+    <t>EAOC [$/yr]</t>
+  </si>
+  <si>
+    <t>Yearly Operating Costs [$/yr]</t>
+  </si>
+  <si>
+    <t>Grassroots Cost [$]</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -112,9 +115,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +147,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +176,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -225,35 +243,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -264,6 +466,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C073725C-4C8A-4543-99C1-563510A8B29C}" name="Table1" displayName="Table1" ref="A7:D21" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A7:D21" xr:uid="{D8E5FC15-E75E-4DA9-9D00-0D0D363E2DFB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{555BC1CC-2494-4670-ABA5-DBF1791846ED}" name="Unit" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A0E83150-BE3D-4CC5-9FB1-17AA5D6FFB36}" name="Grassroots Cost [$]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F9858706-47DB-480A-AB79-EF7326814911}" name="Yearly Operating Costs [$/yr]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A88998A1-A4A0-4837-8FDC-7E4851DDB712}" name="EAOC [$/yr]" dataDxfId="0">
+      <calculatedColumnFormula>B8*$B$4+C8</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,45 +780,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F807AC0B-814C-4E78-AB69-54344699D981}">
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>0.09</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <f>(B3*(1+B3)^B2)/((1+B3)^B2-1)</f>
@@ -609,236 +826,251 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
         <f>14200000+2410000</f>
         <v>16610000</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>3443087.69</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <f>B8*$B$4+C8</f>
         <v>6031259.3833890501</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
         <v>257000</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <f t="shared" ref="D9:D21" si="0">B9*$B$4+C9</f>
         <v>40045.763106621671</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5226150</v>
+      </c>
+      <c r="C10" s="5">
+        <v>349280</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>1163619.1628780966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
-        <v>349280</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>349280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="5">
+        <v>260000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>40513.223376348767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9">
-        <v>260000</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B12" s="5">
+        <v>110000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>116160</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>133300.20988999371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>195000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15168</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>45552.917532261577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>104000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>19104</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>35309.289350539504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3440000</v>
+      </c>
+      <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>40513.223376348767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="9">
-        <v>110000</v>
-      </c>
-      <c r="C12" s="9">
-        <v>116160</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>133300.20988999371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9">
-        <v>195000</v>
-      </c>
-      <c r="C13" s="9">
-        <v>15168</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>45552.917532261577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9">
-        <v>104000</v>
-      </c>
-      <c r="C14" s="9">
-        <v>19104</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>35309.289350539504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>536021.10928707605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
-        <v>3440000</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B16" s="5">
+        <v>2300000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>929070</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>1287456.2067907776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2080000</v>
+      </c>
+      <c r="C17" s="5">
+        <v>452880</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>776985.78701079008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5">
+        <v>156000</v>
+      </c>
+      <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>536021.10928707605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2300000</v>
-      </c>
-      <c r="C16" s="9">
-        <v>929070</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" si="0"/>
-        <v>1287456.2067907776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2080000</v>
-      </c>
-      <c r="C17" s="9">
-        <v>452880</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
-        <v>776985.78701079008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>24307.934025809263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9">
-        <v>156000</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B19" s="5">
+        <v>113000</v>
+      </c>
+      <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="9">
-        <f t="shared" si="0"/>
-        <v>24307.934025809263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>17607.670159720812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9">
-        <v>113000</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" si="0"/>
-        <v>17607.670159720812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="B20" s="5">
         <f>1680000*5</f>
         <v>8400000</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>663466.67000000004</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>1972355.4252358833</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5">
         <v>658000</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="5">
         <v>0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>102529.6191601442</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C22" s="12" t="s">
-        <v>23</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="16">
+        <f>SUM(D8:D20)</f>
+        <v>12104334.082032967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>